--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="867">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="867">
   <si>
     <t>ANSPs</t>
   </si>
@@ -32136,46 +32136,46 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>89</v>
@@ -32184,7 +32184,7 @@
         <v>89</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>89</v>
@@ -32211,7 +32211,7 @@
         <v>89</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>89</v>
@@ -32229,7 +32229,7 @@
         <v>89</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="AH14" s="5" t="s">
         <v>89</v>
@@ -32244,7 +32244,7 @@
         <v>89</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
     </row>
     <row r="15">
@@ -32874,10 +32874,10 @@
         <v>89</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>89</v>
@@ -32886,10 +32886,10 @@
         <v>89</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>89</v>
@@ -32913,7 +32913,7 @@
         <v>89</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>89</v>
@@ -32928,7 +32928,7 @@
         <v>89</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>89</v>
@@ -33070,7 +33070,7 @@
         <v>89</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>89</v>
@@ -33082,7 +33082,7 @@
         <v>89</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>89</v>
@@ -33115,7 +33115,7 @@
         <v>89</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="T22" s="5" t="s">
         <v>89</v>
@@ -33124,7 +33124,7 @@
         <v>89</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>89</v>
@@ -33139,7 +33139,7 @@
         <v>89</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>89</v>
@@ -33154,7 +33154,7 @@
         <v>89</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>89</v>
@@ -33166,10 +33166,10 @@
         <v>89</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>89</v>
@@ -33183,13 +33183,13 @@
         <v>89</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>89</v>
@@ -33231,7 +33231,7 @@
         <v>89</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>89</v>
@@ -33243,7 +33243,7 @@
         <v>89</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>89</v>
@@ -33282,7 +33282,7 @@
         <v>89</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="AK23" s="5" t="s">
         <v>89</v>
@@ -33442,7 +33442,7 @@
         <v>89</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>89</v>
@@ -33454,13 +33454,13 @@
         <v>89</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>89</v>
@@ -33469,7 +33469,7 @@
         <v>89</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>89</v>
@@ -33481,7 +33481,7 @@
         <v>89</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
@@ -33493,7 +33493,7 @@
         <v>89</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="AD25" s="5" t="s">
         <v>89</v>
@@ -33508,7 +33508,7 @@
         <v>89</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>89</v>
@@ -33517,10 +33517,10 @@
         <v>89</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26">
@@ -33528,13 +33528,13 @@
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>89</v>
@@ -33546,7 +33546,7 @@
         <v>89</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>89</v>
@@ -33600,10 +33600,10 @@
         <v>89</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>89</v>
@@ -33618,7 +33618,7 @@
         <v>89</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>89</v>
@@ -33760,64 +33760,64 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>144</v>
+        <v>449</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>89</v>
@@ -33826,7 +33826,7 @@
         <v>89</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -33838,34 +33838,34 @@
         <v>89</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>518</v>
+        <v>822</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -34111,13 +34111,13 @@
         <v>89</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>89</v>
@@ -34159,7 +34159,7 @@
         <v>89</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>89</v>
@@ -34195,7 +34195,7 @@
         <v>89</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AF31" s="5" t="s">
         <v>89</v>
@@ -34204,7 +34204,7 @@
         <v>89</v>
       </c>
       <c r="AH31" s="5" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>89</v>
@@ -34213,7 +34213,7 @@
         <v>89</v>
       </c>
       <c r="AK31" s="5" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="AL31" s="5" t="s">
         <v>89</v>
@@ -35036,115 +35036,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
     </row>
     <row r="40">
@@ -35152,115 +35152,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41">
@@ -35268,115 +35268,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>125</v>
+        <v>346</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>125</v>
+        <v>377</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>125</v>
+        <v>411</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>125</v>
+        <v>426</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>125</v>
+        <v>457</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>125</v>
+        <v>486</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>125</v>
+        <v>504</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>125</v>
+        <v>542</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>125</v>
+        <v>580</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>125</v>
+        <v>604</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>125</v>
+        <v>628</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>125</v>
+        <v>656</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>125</v>
+        <v>688</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>125</v>
+        <v>717</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>125</v>
+        <v>746</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>125</v>
+        <v>777</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>125</v>
+        <v>806</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>125</v>
+        <v>824</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>125</v>
+        <v>855</v>
       </c>
     </row>
     <row r="42">
